--- a/furnizori/anothercompany/invoice controller.xlsx
+++ b/furnizori/anothercompany/invoice controller.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
   <si>
     <t>Serial</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>4.DECEMBER.21</t>
+  </si>
+  <si>
+    <t>5.DECEMBER.21</t>
   </si>
 </sst>
 </file>
@@ -463,17 +466,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="8"/>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
